--- a/medicine/Psychotrope/Commission_d'enquête_sur_l'usage_des_drogues_à_des_fins_non_médicales/Commission_d'enquête_sur_l'usage_des_drogues_à_des_fins_non_médicales.xlsx
+++ b/medicine/Psychotrope/Commission_d'enquête_sur_l'usage_des_drogues_à_des_fins_non_médicales/Commission_d'enquête_sur_l'usage_des_drogues_à_des_fins_non_médicales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_d%27enqu%C3%AAte_sur_l%27usage_des_drogues_%C3%A0_des_fins_non_m%C3%A9dicales</t>
+          <t>Commission_d'enquête_sur_l'usage_des_drogues_à_des_fins_non_médicales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Commission d'enquête sur l'usage des drogues à des fins non médicales, souvent appelée Commission Le Dain après son président Dean Gerald Le Dain, était une commission du gouvernement canadien qui a commencé en 1969 et a terminé ses travaux en 1972. 
-Les recommandations de Gerald Le Dain, Heinz Lehmann et J. Peter Stein incluaient l'abrogation de l'interdiction de la simple possession de cannabis et de la culture à des fins personnelles[1]. Marie-Andrée Bertrand, écrivant pour une opinion minoritaire, a recommandé une politique de distribution légale du cannabis, que le cannabis soit retiré de la Loi sur les stupéfiants (depuis remplacée par la Loi réglementant certaines drogues et autres substances ) et que les provinces mettent en place des contrôles sur la possession et la culture, similaires à ceux qui régissent la consommation d' alcool[2] . 
+Les recommandations de Gerald Le Dain, Heinz Lehmann et J. Peter Stein incluaient l'abrogation de l'interdiction de la simple possession de cannabis et de la culture à des fins personnelles. Marie-Andrée Bertrand, écrivant pour une opinion minoritaire, a recommandé une politique de distribution légale du cannabis, que le cannabis soit retiré de la Loi sur les stupéfiants (depuis remplacée par la Loi réglementant certaines drogues et autres substances ) et que les provinces mettent en place des contrôles sur la possession et la culture, similaires à ceux qui régissent la consommation d' alcool . 
 </t>
         </is>
       </c>
